--- a/src/data/analysis_results.xlsx
+++ b/src/data/analysis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mecha2k/Documents/Code/python/mystudy/ml-creon/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{09EC9A02-1D0F-2F41-B6E5-D0A77A2F1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A012BB0A-FF6A-4A45-A92D-FC7E34CE7386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520"/>
   </bookViews>
@@ -485,6 +485,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -943,8 +948,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,62 +1079,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="16" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - 강조색1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1441,10 +1462,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="BD96" sqref="BD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1462,6 +1483,8 @@
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="4"/>
+    <col min="55" max="55" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76">
@@ -1624,10 +1647,10 @@
       <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="BD1" t="s">
@@ -1854,10 +1877,10 @@
       <c r="BA2">
         <v>28426850</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="4">
         <v>1.05698005698005</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="6">
         <v>-0.22316384180790899</v>
       </c>
       <c r="BD2">
@@ -2084,10 +2107,10 @@
       <c r="BA3">
         <v>21471450</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="4">
         <v>0.96700507614213005</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="6">
         <v>-0.20912547528517</v>
       </c>
       <c r="BD3">
@@ -2314,10 +2337,10 @@
       <c r="BA4">
         <v>22863632</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="4">
         <v>0.88289473684210495</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="6">
         <v>-0.249373433583959</v>
       </c>
       <c r="BD4">
@@ -2544,10 +2567,10 @@
       <c r="BA5">
         <v>45685000</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="4">
         <v>1.6039119804400901</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="6">
         <v>-0.104166666666667</v>
       </c>
       <c r="BD5">
@@ -2774,10 +2797,10 @@
       <c r="BA6">
         <v>25432841</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="4">
         <v>1.6570458404074699</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="6">
         <v>-0.21345514950166</v>
       </c>
       <c r="BD6">
@@ -3004,10 +3027,10 @@
       <c r="BA7">
         <v>35862119</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="4">
         <v>0.65543478260869503</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="6">
         <v>-0.49242424242424199</v>
       </c>
       <c r="BD7">
@@ -3234,10 +3257,10 @@
       <c r="BA8">
         <v>12000000</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" s="4">
         <v>1.3135888501742099</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" s="6">
         <v>-0.19414893617021201</v>
       </c>
       <c r="BD8">
@@ -3458,10 +3481,10 @@
       <c r="BA9">
         <v>3256498</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" s="4">
         <v>1.0814332247556899</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" s="6">
         <v>-0.28851540616246402</v>
       </c>
       <c r="BD9">
@@ -3676,10 +3699,10 @@
       <c r="BA10">
         <v>386351693</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" s="4">
         <v>0.92783505154639101</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" s="6">
         <v>-0.17910447761194001</v>
       </c>
       <c r="BD10">
@@ -3903,10 +3926,10 @@
       <c r="BA11">
         <v>34802000</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" s="4">
         <v>2.06500956022944</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" s="6">
         <v>-0.13754646840148699</v>
       </c>
       <c r="BD11">
@@ -4133,10 +4156,10 @@
       <c r="BA12">
         <v>12455000</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" s="4">
         <v>1.43070044709389</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" s="6">
         <v>-0.19613259668508301</v>
       </c>
       <c r="BD12">
@@ -4363,10 +4386,10 @@
       <c r="BA13">
         <v>12000000</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" s="4">
         <v>1.5187165775400999</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" s="6">
         <v>-0.115942028985507</v>
       </c>
       <c r="BD13">
@@ -4593,10 +4616,10 @@
       <c r="BA14">
         <v>25947500</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" s="4">
         <v>1.19581280788177</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" s="6">
         <v>-0.27549194991055398</v>
       </c>
       <c r="BD14">
@@ -4823,10 +4846,10 @@
       <c r="BA15">
         <v>47194666</v>
       </c>
-      <c r="BB15">
+      <c r="BB15" s="4">
         <v>1.0925925925925799</v>
       </c>
-      <c r="BC15">
+      <c r="BC15" s="6">
         <v>-0.26610169491525498</v>
       </c>
       <c r="BD15">
@@ -5053,10 +5076,10 @@
       <c r="BA16">
         <v>6500000</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" s="4">
         <v>1.6460674157303301</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" s="6">
         <v>-0.18229166666666699</v>
       </c>
       <c r="BD16">
@@ -5283,10 +5306,10 @@
       <c r="BA17">
         <v>110179090</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" s="4">
         <v>1.7233115468409499</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" s="6">
         <v>-0.28366762177650401</v>
       </c>
       <c r="BD17">
@@ -5513,10 +5536,10 @@
       <c r="BA18">
         <v>20000000</v>
       </c>
-      <c r="BB18">
+      <c r="BB18" s="4">
         <v>1.46094946401225</v>
       </c>
-      <c r="BC18">
+      <c r="BC18" s="6">
         <v>-0.16299559471365599</v>
       </c>
       <c r="BD18">
@@ -5743,10 +5766,10 @@
       <c r="BA19">
         <v>22400000</v>
       </c>
-      <c r="BB19">
+      <c r="BB19" s="4">
         <v>2.9182509505703398</v>
       </c>
-      <c r="BC19">
+      <c r="BC19" s="6">
         <v>-0.24267782426778201</v>
       </c>
       <c r="BD19">
@@ -5973,10 +5996,10 @@
       <c r="BA20">
         <v>21471450</v>
       </c>
-      <c r="BB20">
+      <c r="BB20" s="4">
         <v>1.92248062015503</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" s="6">
         <v>-0.17975830815709901</v>
       </c>
       <c r="BD20">
@@ -6203,10 +6226,10 @@
       <c r="BA21">
         <v>10000000</v>
       </c>
-      <c r="BB21">
+      <c r="BB21" s="4">
         <v>1.8499999999999901</v>
       </c>
-      <c r="BC21">
+      <c r="BC21" s="6">
         <v>-0.30232558139534899</v>
       </c>
       <c r="BD21">
@@ -6433,10 +6456,10 @@
       <c r="BA22">
         <v>24939425</v>
       </c>
-      <c r="BB22">
+      <c r="BB22" s="4">
         <v>1.70648464163822</v>
       </c>
-      <c r="BC22">
+      <c r="BC22" s="6">
         <v>-0.46107784431137699</v>
       </c>
       <c r="BD22">
@@ -6663,10 +6686,10 @@
       <c r="BA23">
         <v>35117455</v>
       </c>
-      <c r="BB23">
+      <c r="BB23" s="4">
         <v>1.62125340599454</v>
       </c>
-      <c r="BC23">
+      <c r="BC23" s="6">
         <v>-0.26951219512195101</v>
       </c>
       <c r="BD23">
@@ -6893,10 +6916,10 @@
       <c r="BA24">
         <v>34920410</v>
       </c>
-      <c r="BB24">
+      <c r="BB24" s="4">
         <v>0.65800865800865904</v>
       </c>
-      <c r="BC24">
+      <c r="BC24" s="6">
         <v>-0.46079999999999899</v>
       </c>
       <c r="BD24">
@@ -7123,10 +7146,10 @@
       <c r="BA25">
         <v>28024278</v>
       </c>
-      <c r="BB25">
+      <c r="BB25" s="4">
         <v>1.1626506024096299</v>
       </c>
-      <c r="BC25">
+      <c r="BC25" s="6">
         <v>-0.31610942249240098</v>
       </c>
       <c r="BD25">
@@ -7353,10 +7376,10 @@
       <c r="BA26">
         <v>641964077</v>
       </c>
-      <c r="BB26">
+      <c r="BB26" s="4">
         <v>1.16109045848822</v>
       </c>
-      <c r="BC26">
+      <c r="BC26" s="6">
         <v>-0.20829120323559</v>
       </c>
       <c r="BD26">
@@ -7583,10 +7606,10 @@
       <c r="BA27">
         <v>17900000</v>
       </c>
-      <c r="BB27">
+      <c r="BB27" s="4">
         <v>0.72471910112359605</v>
       </c>
-      <c r="BC27">
+      <c r="BC27" s="6">
         <v>-0.41971830985915398</v>
       </c>
       <c r="BD27">
@@ -7813,10 +7836,10 @@
       <c r="BA28">
         <v>12450800</v>
       </c>
-      <c r="BB28">
+      <c r="BB28" s="4">
         <v>1.9064039408867</v>
       </c>
-      <c r="BC28">
+      <c r="BC28" s="6">
         <v>-0.30921052631578799</v>
       </c>
       <c r="BD28">
@@ -8043,10 +8066,10 @@
       <c r="BA29">
         <v>27590997</v>
       </c>
-      <c r="BB29">
+      <c r="BB29" s="4">
         <v>0.88778877887788599</v>
       </c>
-      <c r="BC29">
+      <c r="BC29" s="6">
         <v>-0.250000000000001</v>
       </c>
       <c r="BD29">
@@ -8258,10 +8281,10 @@
       <c r="BA30">
         <v>120369116</v>
       </c>
-      <c r="BB30">
+      <c r="BB30" s="4">
         <v>1.1666666666666601</v>
       </c>
-      <c r="BC30">
+      <c r="BC30" s="6">
         <v>-0.155462184873948</v>
       </c>
       <c r="BD30">
@@ -8485,10 +8508,10 @@
       <c r="BA31">
         <v>33865090</v>
       </c>
-      <c r="BB31">
+      <c r="BB31" s="4">
         <v>1.0416666666666601</v>
       </c>
-      <c r="BC31">
+      <c r="BC31" s="6">
         <v>-0.27136752136752201</v>
       </c>
       <c r="BD31">
@@ -8703,10 +8726,10 @@
       <c r="BA32">
         <v>50773400</v>
       </c>
-      <c r="BB32">
+      <c r="BB32" s="4">
         <v>0.88475836431226595</v>
       </c>
-      <c r="BC32">
+      <c r="BC32" s="6">
         <v>-0.29070631970260202</v>
       </c>
       <c r="BD32">
@@ -8930,10 +8953,10 @@
       <c r="BA33">
         <v>357815700</v>
       </c>
-      <c r="BB33">
+      <c r="BB33" s="4">
         <v>0.79401993355481804</v>
       </c>
-      <c r="BC33">
+      <c r="BC33" s="6">
         <v>-0.33333333333333298</v>
       </c>
       <c r="BD33">
@@ -9160,10 +9183,10 @@
       <c r="BA34">
         <v>14400000</v>
       </c>
-      <c r="BB34">
+      <c r="BB34" s="4">
         <v>0.973105134474328</v>
       </c>
-      <c r="BC34">
+      <c r="BC34" s="6">
         <v>-0.24692737430167599</v>
       </c>
       <c r="BD34">
@@ -9390,10 +9413,10 @@
       <c r="BA35">
         <v>436611361</v>
       </c>
-      <c r="BB35">
+      <c r="BB35" s="4">
         <v>1.08212560386473</v>
       </c>
-      <c r="BC35">
+      <c r="BC35" s="6">
         <v>-0.308527131782946</v>
       </c>
       <c r="BD35">
@@ -9620,10 +9643,10 @@
       <c r="BA36">
         <v>3204000</v>
       </c>
-      <c r="BB36">
+      <c r="BB36" s="4">
         <v>0.83356258596973798</v>
       </c>
-      <c r="BC36">
+      <c r="BC36" s="6">
         <v>-0.355510752688172</v>
       </c>
       <c r="BD36">
@@ -9850,10 +9873,10 @@
       <c r="BA37">
         <v>24646734</v>
       </c>
-      <c r="BB37">
+      <c r="BB37" s="4">
         <v>1.72238372093023</v>
       </c>
-      <c r="BC37">
+      <c r="BC37" s="6">
         <v>-0.42615384615384599</v>
       </c>
       <c r="BD37">
@@ -10080,10 +10103,10 @@
       <c r="BA38">
         <v>15604898</v>
       </c>
-      <c r="BB38">
+      <c r="BB38" s="4">
         <v>1.00133511348464</v>
       </c>
-      <c r="BC38">
+      <c r="BC38" s="6">
         <v>-0.197547683923706</v>
       </c>
       <c r="BD38">
@@ -10310,10 +10333,10 @@
       <c r="BA39">
         <v>9210000</v>
       </c>
-      <c r="BB39">
+      <c r="BB39" s="4">
         <v>1.41891891891891</v>
       </c>
-      <c r="BC39">
+      <c r="BC39" s="6">
         <v>-0.44875776397515499</v>
       </c>
       <c r="BD39">
@@ -10540,10 +10563,10 @@
       <c r="BA40">
         <v>33720000</v>
       </c>
-      <c r="BB40">
+      <c r="BB40" s="4">
         <v>1.1926406926406901</v>
       </c>
-      <c r="BC40">
+      <c r="BC40" s="6">
         <v>-0.19999999999999901</v>
       </c>
       <c r="BD40">
@@ -10755,10 +10778,10 @@
       <c r="BA41">
         <v>90738915</v>
       </c>
-      <c r="BB41">
+      <c r="BB41" s="4">
         <v>1.53700189753321</v>
       </c>
-      <c r="BC41">
+      <c r="BC41" s="6">
         <v>-0.125925925925925</v>
       </c>
       <c r="BD41">
@@ -10982,10 +11005,10 @@
       <c r="BA42">
         <v>25000000</v>
       </c>
-      <c r="BB42">
+      <c r="BB42" s="4">
         <v>1.2937853107344599</v>
       </c>
-      <c r="BC42">
+      <c r="BC42" s="6">
         <v>-0.23214285714285701</v>
       </c>
       <c r="BD42">
@@ -11212,10 +11235,10 @@
       <c r="BA43">
         <v>34920410</v>
       </c>
-      <c r="BB43">
+      <c r="BB43" s="4">
         <v>0.904270986745216</v>
       </c>
-      <c r="BC43">
+      <c r="BC43" s="6">
         <v>-0.422649140546005</v>
       </c>
       <c r="BD43">
@@ -11442,10 +11465,10 @@
       <c r="BA44">
         <v>12450800</v>
       </c>
-      <c r="BB44">
+      <c r="BB44" s="4">
         <v>1.0690909090909</v>
       </c>
-      <c r="BC44">
+      <c r="BC44" s="6">
         <v>-0.2</v>
       </c>
       <c r="BD44">
@@ -11672,10 +11695,10 @@
       <c r="BA45">
         <v>45444970</v>
       </c>
-      <c r="BB45">
+      <c r="BB45" s="4">
         <v>0.90964777947932496</v>
       </c>
-      <c r="BC45">
+      <c r="BC45" s="6">
         <v>-0.23342175066313001</v>
       </c>
       <c r="BD45">
@@ -11902,10 +11925,10 @@
       <c r="BA46">
         <v>164809359</v>
       </c>
-      <c r="BB46">
+      <c r="BB46" s="4">
         <v>1.00199203187251</v>
       </c>
-      <c r="BC46">
+      <c r="BC46" s="6">
         <v>-0.196521739130435</v>
       </c>
       <c r="BD46">
@@ -12132,10 +12155,10 @@
       <c r="BA47">
         <v>11500000</v>
       </c>
-      <c r="BB47">
+      <c r="BB47" s="4">
         <v>1.6277641277641199</v>
       </c>
-      <c r="BC47">
+      <c r="BC47" s="6">
         <v>-0.33076923076922998</v>
       </c>
       <c r="BD47">
@@ -12362,10 +12385,10 @@
       <c r="BA48">
         <v>15400000</v>
       </c>
-      <c r="BB48">
+      <c r="BB48" s="4">
         <v>2.0730769230769202</v>
       </c>
-      <c r="BC48">
+      <c r="BC48" s="6">
         <v>-0.15752212389380499</v>
       </c>
       <c r="BD48">
@@ -12592,10 +12615,10 @@
       <c r="BA49">
         <v>24646734</v>
       </c>
-      <c r="BB49">
+      <c r="BB49" s="4">
         <v>0.88260869565217304</v>
       </c>
-      <c r="BC49">
+      <c r="BC49" s="6">
         <v>-0.30956521739130399</v>
       </c>
       <c r="BD49">
@@ -12822,10 +12845,10 @@
       <c r="BA50">
         <v>9210000</v>
       </c>
-      <c r="BB50">
+      <c r="BB50" s="4">
         <v>0.74257425742574101</v>
       </c>
-      <c r="BC50">
+      <c r="BC50" s="6">
         <v>-0.284569138276554</v>
       </c>
       <c r="BD50">
@@ -13052,10 +13075,10 @@
       <c r="BA51">
         <v>92915378</v>
       </c>
-      <c r="BB51">
+      <c r="BB51" s="4">
         <v>1.0781818181818099</v>
       </c>
-      <c r="BC51">
+      <c r="BC51" s="6">
         <v>-0.14828209764918501</v>
       </c>
       <c r="BD51">
@@ -13282,10 +13305,10 @@
       <c r="BA52">
         <v>62368324</v>
       </c>
-      <c r="BB52">
+      <c r="BB52" s="4">
         <v>1.59610705596106</v>
       </c>
-      <c r="BC52">
+      <c r="BC52" s="6">
         <v>-0.16872427983539001</v>
       </c>
       <c r="BD52">
@@ -13512,10 +13535,10 @@
       <c r="BA53">
         <v>20000000</v>
       </c>
-      <c r="BB53">
+      <c r="BB53" s="4">
         <v>1.0949445129469699</v>
       </c>
-      <c r="BC53">
+      <c r="BC53" s="6">
         <v>-0.18475991649269199</v>
       </c>
       <c r="BD53">
@@ -13742,10 +13765,10 @@
       <c r="BA54">
         <v>4515228</v>
       </c>
-      <c r="BB54">
+      <c r="BB54" s="4">
         <v>1.4594594594594501</v>
       </c>
-      <c r="BC54">
+      <c r="BC54" s="6">
         <v>-0.1125</v>
       </c>
       <c r="BD54">
@@ -13957,10 +13980,10 @@
       <c r="BA55">
         <v>134280000</v>
       </c>
-      <c r="BB55">
+      <c r="BB55" s="4">
         <v>1.15700934579439</v>
       </c>
-      <c r="BC55">
+      <c r="BC55" s="6">
         <v>-0.36089385474860303</v>
       </c>
       <c r="BD55">
@@ -14184,10 +14207,10 @@
       <c r="BA56">
         <v>92915378</v>
       </c>
-      <c r="BB56">
+      <c r="BB56" s="4">
         <v>1.0354729729729599</v>
       </c>
-      <c r="BC56">
+      <c r="BC56" s="6">
         <v>-0.224250325945242</v>
       </c>
       <c r="BD56">
@@ -14414,10 +14437,10 @@
       <c r="BA57">
         <v>62000000</v>
       </c>
-      <c r="BB57">
+      <c r="BB57" s="4">
         <v>0.93555316863587401</v>
       </c>
-      <c r="BC57">
+      <c r="BC57" s="6">
         <v>-0.248958333333333</v>
       </c>
       <c r="BD57">
@@ -14644,10 +14667,10 @@
       <c r="BA58">
         <v>91140499</v>
       </c>
-      <c r="BB58">
+      <c r="BB58" s="4">
         <v>1.0678733031674199</v>
       </c>
-      <c r="BC58">
+      <c r="BC58" s="6">
         <v>-0.27081712062256802</v>
       </c>
       <c r="BD58">
@@ -14874,10 +14897,10 @@
       <c r="BA59">
         <v>34800000</v>
       </c>
-      <c r="BB59">
+      <c r="BB59" s="4">
         <v>1.0500610500610501</v>
       </c>
-      <c r="BC59">
+      <c r="BC59" s="6">
         <v>-0.24919786096256499</v>
       </c>
       <c r="BD59">
@@ -15092,10 +15115,10 @@
       <c r="BA60">
         <v>559978815</v>
       </c>
-      <c r="BB60">
+      <c r="BB60" s="4">
         <v>1.3373015873015801</v>
       </c>
-      <c r="BC60">
+      <c r="BC60" s="6">
         <v>-0.13953488372093001</v>
       </c>
       <c r="BD60">
@@ -15319,10 +15342,10 @@
       <c r="BA61">
         <v>34275419</v>
       </c>
-      <c r="BB61">
+      <c r="BB61" s="4">
         <v>1.1580419580419501</v>
       </c>
-      <c r="BC61">
+      <c r="BC61" s="6">
         <v>-0.16806722689075601</v>
       </c>
       <c r="BD61">
@@ -15549,10 +15572,10 @@
       <c r="BA62">
         <v>92915378</v>
       </c>
-      <c r="BB62">
+      <c r="BB62" s="4">
         <v>0.84690553745928199</v>
       </c>
-      <c r="BC62">
+      <c r="BC62" s="6">
         <v>-0.24561403508771901</v>
       </c>
       <c r="BD62">
@@ -15779,10 +15802,10 @@
       <c r="BA63">
         <v>44282310</v>
       </c>
-      <c r="BB63">
+      <c r="BB63" s="4">
         <v>1.03106796116504</v>
       </c>
-      <c r="BC63">
+      <c r="BC63" s="6">
         <v>-0.35852372583479802</v>
       </c>
       <c r="BD63">
@@ -16009,10 +16032,10 @@
       <c r="BA64">
         <v>87186835</v>
       </c>
-      <c r="BB64">
+      <c r="BB64" s="4">
         <v>0.68456375838926198</v>
       </c>
-      <c r="BC64">
+      <c r="BC64" s="6">
         <v>-0.36290322580645101</v>
       </c>
       <c r="BD64">
@@ -16239,10 +16262,10 @@
       <c r="BA65">
         <v>163647814</v>
       </c>
-      <c r="BB65">
+      <c r="BB65" s="4">
         <v>0.74679802955664998</v>
       </c>
-      <c r="BC65">
+      <c r="BC65" s="6">
         <v>-0.42330097087378599</v>
       </c>
       <c r="BD65">
@@ -16469,10 +16492,10 @@
       <c r="BA66">
         <v>34800000</v>
       </c>
-      <c r="BB66">
+      <c r="BB66" s="4">
         <v>1.12689173457508</v>
       </c>
-      <c r="BC66">
+      <c r="BC66" s="6">
         <v>-0.188405797101449</v>
       </c>
       <c r="BD66">
@@ -16699,10 +16722,10 @@
       <c r="BA67">
         <v>13168460</v>
       </c>
-      <c r="BB67">
+      <c r="BB67" s="4">
         <v>1.2540894220283501</v>
       </c>
-      <c r="BC67">
+      <c r="BC67" s="6">
         <v>-0.32467532467532401</v>
       </c>
       <c r="BD67">
@@ -16926,10 +16949,10 @@
       <c r="BA68">
         <v>34958700</v>
       </c>
-      <c r="BB68">
+      <c r="BB68" s="4">
         <v>1.14107883817427</v>
       </c>
-      <c r="BC68">
+      <c r="BC68" s="6">
         <v>-0.354545454545454</v>
       </c>
       <c r="BD68">
@@ -17156,10 +17179,10 @@
       <c r="BA69">
         <v>25800000</v>
       </c>
-      <c r="BB69">
+      <c r="BB69" s="4">
         <v>0.69308357348703098</v>
       </c>
-      <c r="BC69">
+      <c r="BC69" s="6">
         <v>-0.46058091286307001</v>
       </c>
       <c r="BD69">
@@ -17386,10 +17409,10 @@
       <c r="BA70">
         <v>29240000</v>
       </c>
-      <c r="BB70">
+      <c r="BB70" s="4">
         <v>0.86159169550172798</v>
       </c>
-      <c r="BC70">
+      <c r="BC70" s="6">
         <v>-0.30546623794212202</v>
       </c>
       <c r="BD70">
@@ -17616,10 +17639,10 @@
       <c r="BA71">
         <v>79820307</v>
       </c>
-      <c r="BB71">
+      <c r="BB71" s="4">
         <v>1.0037082818294101</v>
       </c>
-      <c r="BC71">
+      <c r="BC71" s="6">
         <v>-0.30255941499085798</v>
       </c>
       <c r="BD71">
@@ -17846,10 +17869,10 @@
       <c r="BA72">
         <v>80097804</v>
       </c>
-      <c r="BB72">
+      <c r="BB72" s="4">
         <v>0.62238622386223696</v>
       </c>
-      <c r="BC72">
+      <c r="BC72" s="6">
         <v>-0.64420803782505898</v>
       </c>
       <c r="BD72">
@@ -18076,10 +18099,10 @@
       <c r="BA73">
         <v>25000000</v>
       </c>
-      <c r="BB73">
+      <c r="BB73" s="4">
         <v>0.99410609037328002</v>
       </c>
-      <c r="BC73">
+      <c r="BC73" s="6">
         <v>-0.404085257548845</v>
       </c>
       <c r="BD73">
@@ -18306,10 +18329,10 @@
       <c r="BA74">
         <v>13000000</v>
       </c>
-      <c r="BB74">
+      <c r="BB74" s="4">
         <v>0.84551724137930795</v>
       </c>
-      <c r="BC74">
+      <c r="BC74" s="6">
         <v>-0.54835164835164796</v>
       </c>
       <c r="BD74">
@@ -18536,10 +18559,10 @@
       <c r="BA75">
         <v>20000000</v>
       </c>
-      <c r="BB75">
+      <c r="BB75" s="4">
         <v>0.95662949194547797</v>
       </c>
-      <c r="BC75">
+      <c r="BC75" s="6">
         <v>-0.46356033452807599</v>
       </c>
       <c r="BD75">
@@ -18766,10 +18789,10 @@
       <c r="BA76">
         <v>8956502</v>
       </c>
-      <c r="BB76">
+      <c r="BB76" s="4">
         <v>0.77659574468085102</v>
       </c>
-      <c r="BC76">
+      <c r="BC76" s="6">
         <v>-0.53181818181818097</v>
       </c>
       <c r="BD76">
@@ -18996,10 +19019,10 @@
       <c r="BA77">
         <v>25210438</v>
       </c>
-      <c r="BB77">
+      <c r="BB77" s="4">
         <v>0.65690376569037501</v>
       </c>
-      <c r="BC77">
+      <c r="BC77" s="6">
         <v>-0.52599118942731304</v>
       </c>
       <c r="BD77">
@@ -19211,10 +19234,10 @@
       <c r="BA78">
         <v>113680000</v>
       </c>
-      <c r="BB78">
+      <c r="BB78" s="4">
         <v>0.58193277310924396</v>
       </c>
-      <c r="BC78">
+      <c r="BC78" s="6">
         <v>-0.61908713692946005</v>
       </c>
       <c r="BD78">
@@ -19438,10 +19461,10 @@
       <c r="BA79">
         <v>4029782</v>
       </c>
-      <c r="BB79">
+      <c r="BB79" s="4">
         <v>0.73493975903614495</v>
       </c>
-      <c r="BC79">
+      <c r="BC79" s="6">
         <v>-0.52903600464575995</v>
       </c>
       <c r="BD79">
@@ -19668,10 +19691,10 @@
       <c r="BA80">
         <v>23185880</v>
       </c>
-      <c r="BB80">
+      <c r="BB80" s="4">
         <v>1.01108033240997</v>
       </c>
-      <c r="BC80">
+      <c r="BC80" s="6">
         <v>-0.29234629861982397</v>
       </c>
       <c r="BD80">
@@ -19898,10 +19921,10 @@
       <c r="BA81">
         <v>106915987</v>
       </c>
-      <c r="BB81">
+      <c r="BB81" s="4">
         <v>0.58455284552845499</v>
       </c>
-      <c r="BC81">
+      <c r="BC81" s="6">
         <v>-0.52988047808764904</v>
       </c>
       <c r="BD81">
@@ -20128,10 +20151,10 @@
       <c r="BA82" s="3">
         <v>23800576</v>
       </c>
-      <c r="BB82" s="3">
+      <c r="BB82" s="5">
         <v>0.987341772151897</v>
       </c>
-      <c r="BC82" s="3">
+      <c r="BC82" s="7">
         <v>-0.219512195121951</v>
       </c>
       <c r="BD82" s="3">
@@ -20358,10 +20381,10 @@
       <c r="BA83" s="3">
         <v>85490868</v>
       </c>
-      <c r="BB83" s="3">
+      <c r="BB83" s="5">
         <v>1.8131416837782299</v>
       </c>
-      <c r="BC83" s="3">
+      <c r="BC83" s="7">
         <v>-0.21476510067114099</v>
       </c>
       <c r="BD83" s="3">
@@ -20588,10 +20611,10 @@
       <c r="BA84" s="3">
         <v>15611619</v>
       </c>
-      <c r="BB84" s="3">
+      <c r="BB84" s="5">
         <v>2.1794871794871802</v>
       </c>
-      <c r="BC84" s="3">
+      <c r="BC84" s="7">
         <v>-0.44378109452736197</v>
       </c>
       <c r="BD84" s="3">
@@ -20818,10 +20841,10 @@
       <c r="BA85" s="3">
         <v>34648025</v>
       </c>
-      <c r="BB85" s="3">
+      <c r="BB85" s="5">
         <v>1.20232558139534</v>
       </c>
-      <c r="BC85" s="3">
+      <c r="BC85" s="7">
         <v>-0.18057921635434299</v>
       </c>
       <c r="BD85" s="3">
@@ -21048,10 +21071,10 @@
       <c r="BA86" s="3">
         <v>37240693</v>
       </c>
-      <c r="BB86" s="3">
+      <c r="BB86" s="5">
         <v>1.7245989304812801</v>
       </c>
-      <c r="BC86" s="3">
+      <c r="BC86" s="7">
         <v>-0.31527531083481303</v>
       </c>
       <c r="BD86" s="3">
@@ -21278,10 +21301,10 @@
       <c r="BA87" s="3">
         <v>12712747</v>
       </c>
-      <c r="BB87" s="3">
+      <c r="BB87" s="5">
         <v>1.6301969365426701</v>
       </c>
-      <c r="BC87" s="3">
+      <c r="BC87" s="7">
         <v>-0.26916932907348201</v>
       </c>
       <c r="BD87" s="3">
@@ -21508,10 +21531,10 @@
       <c r="BA88" s="3">
         <v>44311468</v>
       </c>
-      <c r="BB88" s="3">
+      <c r="BB88" s="5">
         <v>1.6819923371647501</v>
       </c>
-      <c r="BC88" s="3">
+      <c r="BC88" s="7">
         <v>-0.327561327561327</v>
       </c>
       <c r="BD88" s="3">
@@ -21738,10 +21761,10 @@
       <c r="BA89" s="3">
         <v>29116822</v>
       </c>
-      <c r="BB89" s="3">
+      <c r="BB89" s="5">
         <v>1.37110481586402</v>
       </c>
-      <c r="BC89" s="3">
+      <c r="BC89" s="7">
         <v>-0.16371220020855001</v>
       </c>
       <c r="BD89" s="3">
@@ -21968,10 +21991,10 @@
       <c r="BA90" s="3">
         <v>405363347</v>
       </c>
-      <c r="BB90" s="3">
+      <c r="BB90" s="5">
         <v>2.6829268292682902</v>
       </c>
-      <c r="BC90" s="3">
+      <c r="BC90" s="7">
         <v>-0.26108374384236399</v>
       </c>
       <c r="BD90" s="3">
@@ -22198,10 +22221,10 @@
       <c r="BA91" s="3">
         <v>25800000</v>
       </c>
-      <c r="BB91" s="3">
+      <c r="BB91" s="5">
         <v>1.80851063829787</v>
       </c>
-      <c r="BC91" s="3">
+      <c r="BC91" s="7">
         <v>-0.20134228187919401</v>
       </c>
       <c r="BD91" s="3">
